--- a/TEMP/Task1.xlsx
+++ b/TEMP/Task1.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="9" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="14" r:id="rId1"/>
+    <sheet name="NikitaBugakov" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Какой-то текст, чтобы не было скучно</t>
   </si>
@@ -76,13 +77,16 @@
   </si>
   <si>
     <t>Фамилия</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +94,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,12 +126,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,7 +446,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,4 +578,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>467.00900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4">
+        <f>SUM(E3:E8)</f>
+        <v>2017.1089999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>